--- a/data/trans_orig/P36B06_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>421313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>397269</v>
+        <v>396729</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>441999</v>
+        <v>440189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7212516891362821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6800907089827433</v>
+        <v>0.6791662199840228</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7566653520833208</v>
+        <v>0.7535659963453587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>726</v>
@@ -764,19 +764,19 @@
         <v>758914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>734558</v>
+        <v>737042</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>779876</v>
+        <v>784709</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8236917837789072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7972570460884588</v>
+        <v>0.7999523175168377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8464428653685305</v>
+        <v>0.8516888029463031</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1140</v>
@@ -785,19 +785,19 @@
         <v>1180228</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1145105</v>
+        <v>1143789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1210824</v>
+        <v>1210036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7839444940017334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7606147007151384</v>
+        <v>0.759741108799293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8042675686897997</v>
+        <v>0.8037443459368999</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>162828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142142</v>
+        <v>143952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186872</v>
+        <v>187412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2787483108637179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2433346479166793</v>
+        <v>0.246434003654641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3199092910172567</v>
+        <v>0.3208337800159771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -835,19 +835,19 @@
         <v>162443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141481</v>
+        <v>136648</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186799</v>
+        <v>184315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1763082162210929</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1535571346314695</v>
+        <v>0.1483111970536969</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2027429539115412</v>
+        <v>0.2000476824831622</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -856,19 +856,19 @@
         <v>325271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294675</v>
+        <v>295463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>360394</v>
+        <v>361710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2160555059982666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1957324313102003</v>
+        <v>0.1962556540631002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2393852992848616</v>
+        <v>0.240258891200707</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>812559</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>779307</v>
+        <v>780560</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>840093</v>
+        <v>841391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7551216121027026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7242203911851433</v>
+        <v>0.7253848268283702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.780709329252256</v>
+        <v>0.7819156903651585</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>836</v>
@@ -981,19 +981,19 @@
         <v>859860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>832997</v>
+        <v>833649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>883571</v>
+        <v>882955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8130775273328029</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7876760089217876</v>
+        <v>0.7882921360541769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8354985337899897</v>
+        <v>0.8349153784195049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1631</v>
@@ -1002,19 +1002,19 @@
         <v>1672420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1631634</v>
+        <v>1635819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1708061</v>
+        <v>1711317</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7838479533663553</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7647321352507731</v>
+        <v>0.7666936672642661</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8005529816331007</v>
+        <v>0.8020786964735408</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>263505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>235971</v>
+        <v>234673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>296757</v>
+        <v>295504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2448783878972975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.219290670747744</v>
+        <v>0.2180843096348415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2757796088148567</v>
+        <v>0.2746151731716298</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>192</v>
@@ -1052,19 +1052,19 @@
         <v>197678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>173967</v>
+        <v>174583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>224541</v>
+        <v>223889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1869224726671971</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1645014662100105</v>
+        <v>0.1650846215804952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2123239910782126</v>
+        <v>0.2117078639458232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>450</v>
@@ -1073,19 +1073,19 @@
         <v>461182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>425541</v>
+        <v>422285</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>501968</v>
+        <v>497783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2161520466336448</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1994470183668993</v>
+        <v>0.1979213035264592</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2352678647492269</v>
+        <v>0.2333063327357338</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>873137</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>843186</v>
+        <v>845162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>900924</v>
+        <v>904175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7784786370884492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7517749529610103</v>
+        <v>0.7535368379832084</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8032529388970943</v>
+        <v>0.8061518078248892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>803</v>
@@ -1198,19 +1198,19 @@
         <v>816813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>791130</v>
+        <v>792016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>840993</v>
+        <v>838984</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8226707913899466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7968034457496035</v>
+        <v>0.7976951326511805</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8470233490018715</v>
+        <v>0.8450003481424589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1660</v>
@@ -1219,19 +1219,19 @@
         <v>1689950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1652697</v>
+        <v>1652470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1726422</v>
+        <v>1723848</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7992296573334248</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7816112116883833</v>
+        <v>0.7815041463447777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8164780334134136</v>
+        <v>0.8152611043860338</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>248457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>220670</v>
+        <v>217419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278408</v>
+        <v>276432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2215213629115508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1967470611029058</v>
+        <v>0.1938481921751108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2482250470389898</v>
+        <v>0.2464631620167917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -1269,19 +1269,19 @@
         <v>176067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151887</v>
+        <v>153896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201750</v>
+        <v>200864</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1773292086100534</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1529766509981285</v>
+        <v>0.1549996518575411</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2031965542503965</v>
+        <v>0.2023048673488195</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>424</v>
@@ -1290,19 +1290,19 @@
         <v>424524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>388052</v>
+        <v>390626</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>461777</v>
+        <v>462004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2007703426665752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1835219665865863</v>
+        <v>0.1847388956139661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2183887883116166</v>
+        <v>0.2184958536552223</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>355288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>337135</v>
+        <v>338281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>372261</v>
+        <v>372180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7944719676618714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7538791056542313</v>
+        <v>0.7564428543989727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8324252586620992</v>
+        <v>0.8322442146579137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>268</v>
@@ -1415,19 +1415,19 @@
         <v>269936</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>253094</v>
+        <v>255082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>282688</v>
+        <v>283187</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7912339365862887</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7418681685852547</v>
+        <v>0.7476948143433888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8286119723798407</v>
+        <v>0.8300749167017811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>615</v>
@@ -1436,19 +1436,19 @@
         <v>625224</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>602397</v>
+        <v>601381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>646615</v>
+        <v>646657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7930707248635441</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7641166728509909</v>
+        <v>0.7628278677893973</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8202053042320402</v>
+        <v>0.8202579288395319</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>91912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74939</v>
+        <v>75020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110065</v>
+        <v>108919</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2055280323381286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.167574741337901</v>
+        <v>0.1677557853420869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2461208943457688</v>
+        <v>0.2435571456010278</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1486,19 +1486,19 @@
         <v>71222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58470</v>
+        <v>57971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88064</v>
+        <v>86076</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2087660634137113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1713880276201593</v>
+        <v>0.1699250832982189</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2581318314147454</v>
+        <v>0.2523051856566112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>160</v>
@@ -1507,19 +1507,19 @@
         <v>163134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>141743</v>
+        <v>141701</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185961</v>
+        <v>186977</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2069292751364558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1797946957679597</v>
+        <v>0.1797420711604681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2358833271490089</v>
+        <v>0.2371721322106027</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>2462297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2418372</v>
+        <v>2415468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2515052</v>
+        <v>2510545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7625572738719922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7489541146092548</v>
+        <v>0.7480548329543196</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7788952201982542</v>
+        <v>0.7774995116220492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2633</v>
@@ -1632,19 +1632,19 @@
         <v>2705524</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2660607</v>
+        <v>2663093</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2749730</v>
+        <v>2747326</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8166551318225832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8030971470507896</v>
+        <v>0.8038476114686324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8299987410828032</v>
+        <v>0.8292730896706145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5046</v>
@@ -1653,19 +1653,19 @@
         <v>5167820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5104606</v>
+        <v>5101219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5235830</v>
+        <v>5231440</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7899532441804364</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7802903566163905</v>
+        <v>0.7797725088810521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8003491690298273</v>
+        <v>0.7996780904464795</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>766702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>713947</v>
+        <v>718454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>810627</v>
+        <v>813531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2374427261280078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2211047798017459</v>
+        <v>0.2225004883779504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2510458853907453</v>
+        <v>0.2519451670456802</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>599</v>
@@ -1703,19 +1703,19 @@
         <v>607409</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>563203</v>
+        <v>565607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>652326</v>
+        <v>649840</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1833448681774168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1700012589171972</v>
+        <v>0.1707269103293856</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1969028529492104</v>
+        <v>0.1961523885313678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1352</v>
@@ -1724,19 +1724,19 @@
         <v>1374112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1306102</v>
+        <v>1310492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1437326</v>
+        <v>1440713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2100467558195635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1996508309701729</v>
+        <v>0.2003219095535205</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2197096433836095</v>
+        <v>0.2202274911189478</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>814812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>787688</v>
+        <v>789519</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>840937</v>
+        <v>842260</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7820786132706147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7560446101663</v>
+        <v>0.7578020826705562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8071543691363532</v>
+        <v>0.8084240647490508</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>865</v>
@@ -2089,19 +2089,19 @@
         <v>939172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>910257</v>
+        <v>913091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>962375</v>
+        <v>961436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8394834877065105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8136371545752512</v>
+        <v>0.8161710896847704</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8602236232031103</v>
+        <v>0.8593845471758028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1625</v>
@@ -2110,19 +2110,19 @@
         <v>1753985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1716491</v>
+        <v>1712671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1790983</v>
+        <v>1792649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8118025706290606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7944492856769254</v>
+        <v>0.7926810151235121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8289267703336649</v>
+        <v>0.8296976676553205</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>227042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200917</v>
+        <v>199594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>254166</v>
+        <v>252335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2179213867293854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1928456308636468</v>
+        <v>0.1915759352509492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2439553898337</v>
+        <v>0.2421979173294438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -2160,19 +2160,19 @@
         <v>179578</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156375</v>
+        <v>157314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208493</v>
+        <v>205659</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1605165122934896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1397763767968897</v>
+        <v>0.1406154528241972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1863628454247488</v>
+        <v>0.1838289103152297</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>381</v>
@@ -2181,19 +2181,19 @@
         <v>406620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>369622</v>
+        <v>367956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>444114</v>
+        <v>447934</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1881974293709394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1710732296663352</v>
+        <v>0.1703023323446796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2055507143230748</v>
+        <v>0.207318984876488</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>822550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>796691</v>
+        <v>799796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>844142</v>
+        <v>845969</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8426979709663805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8162058103369667</v>
+        <v>0.819387020718949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8648192313630023</v>
+        <v>0.8666901987906767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>893</v>
@@ -2306,19 +2306,19 @@
         <v>951770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>924112</v>
+        <v>928630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>971383</v>
+        <v>975818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8706553536363849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8453548093448697</v>
+        <v>0.849487528953018</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.888596482897181</v>
+        <v>0.8926536617168964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1667</v>
@@ -2327,19 +2327,19 @@
         <v>1774319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1739467</v>
+        <v>1739651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1804576</v>
+        <v>1804492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8574675458000808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8406248685513886</v>
+        <v>0.8407135451599531</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8720896127872378</v>
+        <v>0.8720493360163898</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>153541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131949</v>
+        <v>130122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>179400</v>
+        <v>176295</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1573020290336195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1351807686369976</v>
+        <v>0.1333098012093234</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.183794189663033</v>
+        <v>0.180612979281051</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -2377,19 +2377,19 @@
         <v>141395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>121782</v>
+        <v>117347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>169053</v>
+        <v>164535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1293446463636151</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1114035171028191</v>
+        <v>0.1073463382831039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1546451906551303</v>
+        <v>0.150512471046982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>275</v>
@@ -2398,19 +2398,19 @@
         <v>294936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264679</v>
+        <v>264763</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>329788</v>
+        <v>329604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1425324541999193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1279103872127621</v>
+        <v>0.1279506639836101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1593751314486113</v>
+        <v>0.1592864548400469</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>763649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>742415</v>
+        <v>742551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>783509</v>
+        <v>782873</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8637035750628616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8396876734550436</v>
+        <v>0.8398414331333327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8861657015568019</v>
+        <v>0.8854467890466591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>741</v>
@@ -2523,19 +2523,19 @@
         <v>794723</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>777061</v>
+        <v>776872</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>811687</v>
+        <v>810471</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9084525459499427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8882629899142845</v>
+        <v>0.8880471151583126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9278438623446309</v>
+        <v>0.9264541457134337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1456</v>
@@ -2544,19 +2544,19 @@
         <v>1558372</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1532436</v>
+        <v>1527484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1584159</v>
+        <v>1583600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8859591714947103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8712140049103635</v>
+        <v>0.8683987852557778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9006196177191081</v>
+        <v>0.9003015470501783</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>120507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>100647</v>
+        <v>101283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141741</v>
+        <v>141605</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1362964249371384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1138342984431982</v>
+        <v>0.1145532109533409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1603123265449566</v>
+        <v>0.1601585668666678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -2594,19 +2594,19 @@
         <v>80087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63123</v>
+        <v>64339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97749</v>
+        <v>97938</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09154745405005725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0721561376553691</v>
+        <v>0.07354585428656664</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1117370100857157</v>
+        <v>0.1119528848416884</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>193</v>
@@ -2615,19 +2615,19 @@
         <v>200594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174807</v>
+        <v>175366</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>226530</v>
+        <v>231482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1140408285052898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09938038228089201</v>
+        <v>0.09969845294982174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1287859950896366</v>
+        <v>0.1316012147442223</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>436658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>419883</v>
+        <v>419931</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>450471</v>
+        <v>450637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8698684656988842</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8364510112191635</v>
+        <v>0.8365449905952315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.897384543213084</v>
+        <v>0.8977147634621405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>378</v>
@@ -2740,19 +2740,19 @@
         <v>415542</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>403205</v>
+        <v>402932</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>425382</v>
+        <v>425555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9261846853817274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8986875952276356</v>
+        <v>0.8980790666339125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.948117143394109</v>
+        <v>0.9485027343014566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>773</v>
@@ -2761,19 +2761,19 @@
         <v>852200</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>833001</v>
+        <v>832707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>870668</v>
+        <v>869484</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8964471821640981</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8762509802327634</v>
+        <v>0.875942189633827</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9158739876087238</v>
+        <v>0.9146286018872811</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>65324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51511</v>
+        <v>51345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82099</v>
+        <v>82051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1301315343011158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1026154567869164</v>
+        <v>0.1022852365378595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1635489887808366</v>
+        <v>0.1634550094047693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -2811,19 +2811,19 @@
         <v>33118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23278</v>
+        <v>23105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45455</v>
+        <v>45728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07381531461827261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05188285660589097</v>
+        <v>0.05149726569854345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1013124047723643</v>
+        <v>0.1019209333660875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -2832,19 +2832,19 @@
         <v>98442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79974</v>
+        <v>81158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117641</v>
+        <v>117935</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1035528178359019</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08412601239127614</v>
+        <v>0.08537139811271893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1237490197672366</v>
+        <v>0.124057810366173</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>2837669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2793660</v>
+        <v>2797573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2881613</v>
+        <v>2880865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8336073567784069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8206791718542387</v>
+        <v>0.8218286750878346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8465166012789695</v>
+        <v>0.8462970206252995</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2877</v>
@@ -2957,19 +2957,19 @@
         <v>3101208</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3060404</v>
+        <v>3058566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3138523</v>
+        <v>3141595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8771908865036411</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.865649314304349</v>
+        <v>0.8651294434417092</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8877457692581698</v>
+        <v>0.8886148177183314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5521</v>
@@ -2978,19 +2978,19 @@
         <v>5938876</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5883394</v>
+        <v>5881186</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5998800</v>
+        <v>5998152</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8558114437557458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.847816289009299</v>
+        <v>0.8474980844615611</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8644466974218095</v>
+        <v>0.8643533546058438</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>566414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>522470</v>
+        <v>523218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>610423</v>
+        <v>606510</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1663926432215931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1534833987210305</v>
+        <v>0.1537029793747005</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1793208281457613</v>
+        <v>0.1781713249121654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>401</v>
@@ -3028,19 +3028,19 @@
         <v>434177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>396862</v>
+        <v>393790</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>474981</v>
+        <v>476819</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1228091134963589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.11225423074183</v>
+        <v>0.1113851822816686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1343506856956509</v>
+        <v>0.1348705565582907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>945</v>
@@ -3049,19 +3049,19 @@
         <v>1000592</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>940668</v>
+        <v>941316</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1056074</v>
+        <v>1058282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1441885562442542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1355533025781905</v>
+        <v>0.1356466453941561</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1521837109907011</v>
+        <v>0.1525019155384388</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>895376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>866137</v>
+        <v>866276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>922474</v>
+        <v>922128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7971346821907704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7711037728522022</v>
+        <v>0.7712271858305134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8212595708549547</v>
+        <v>0.8209515820292729</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1000</v>
@@ -3414,19 +3414,19 @@
         <v>1062821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1036423</v>
+        <v>1035327</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1089024</v>
+        <v>1085700</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.843802708853171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8228448585356425</v>
+        <v>0.8219746885317064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8646059955114004</v>
+        <v>0.8619669527774122</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1851</v>
@@ -3435,19 +3435,19 @@
         <v>1958197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1912435</v>
+        <v>1916018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1991169</v>
+        <v>1991929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8218036068582583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8025984799596908</v>
+        <v>0.8041023633884876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8356413158420225</v>
+        <v>0.83596015995075</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>227867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200769</v>
+        <v>201115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257106</v>
+        <v>256967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2028653178092296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1787404291450453</v>
+        <v>0.179048417970727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2288962271477976</v>
+        <v>0.2287728141694865</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -3485,19 +3485,19 @@
         <v>196740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>170537</v>
+        <v>173861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223138</v>
+        <v>224234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.156197291146829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1353940044885996</v>
+        <v>0.1380330472225877</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1771551414643575</v>
+        <v>0.1780253114682934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>399</v>
@@ -3506,19 +3506,19 @@
         <v>424607</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>391635</v>
+        <v>390875</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470369</v>
+        <v>466786</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1781963931417417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1643586841579774</v>
+        <v>0.1640398400492499</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1974015200403089</v>
+        <v>0.1958976366115122</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>737863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>706751</v>
+        <v>712291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>759794</v>
+        <v>760499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8127692653256705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7784986527601143</v>
+        <v>0.7846015041922588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8369265239969857</v>
+        <v>0.8377034051399783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>784</v>
@@ -3631,19 +3631,19 @@
         <v>833489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>808702</v>
+        <v>805733</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>855716</v>
+        <v>854289</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8289605086066658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8043083141797465</v>
+        <v>0.8013556314258641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8510666950448472</v>
+        <v>0.8496474375770371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1504</v>
@@ -3652,19 +3652,19 @@
         <v>1571352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1540210</v>
+        <v>1538113</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1605160</v>
+        <v>1605013</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8212779609395761</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8050016086746585</v>
+        <v>0.8039052908066898</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8389479563288945</v>
+        <v>0.8388711660666968</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>169975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148044</v>
+        <v>147339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>201087</v>
+        <v>195547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1872307346743294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1630734760030143</v>
+        <v>0.1622965948600217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2215013472398857</v>
+        <v>0.215398495807741</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -3702,19 +3702,19 @@
         <v>171974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>149747</v>
+        <v>151174</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196761</v>
+        <v>199730</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1710394913933341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1489333049551528</v>
+        <v>0.1503525624229633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1956916858202537</v>
+        <v>0.1986443685741364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>326</v>
@@ -3723,19 +3723,19 @@
         <v>341949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>308141</v>
+        <v>308288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>373091</v>
+        <v>375188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.178722039060424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1610520436711055</v>
+        <v>0.1611288339333032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1949983913253415</v>
+        <v>0.19609470919331</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>655880</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>628920</v>
+        <v>632795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>678883</v>
+        <v>681346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7962031469013912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7634760667664496</v>
+        <v>0.7681798766257982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8241276693437958</v>
+        <v>0.8271185074277424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>591</v>
@@ -3848,19 +3848,19 @@
         <v>631457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>607513</v>
+        <v>609595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>650975</v>
+        <v>653371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8200947232189044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7889985846112463</v>
+        <v>0.7917018836107925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8454444983327032</v>
+        <v>0.848555230160134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1226</v>
@@ -3869,19 +3869,19 @@
         <v>1287336</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1252458</v>
+        <v>1255991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1319327</v>
+        <v>1320438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8077458347558866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.78586118760817</v>
+        <v>0.7880779399080338</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8278189803733265</v>
+        <v>0.8285155975172618</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>167879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144876</v>
+        <v>142413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194839</v>
+        <v>190964</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2037968530986088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1758723306562043</v>
+        <v>0.1728814925722576</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2365239332335504</v>
+        <v>0.2318201233742018</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -3919,19 +3919,19 @@
         <v>138523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119005</v>
+        <v>116609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162467</v>
+        <v>160385</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1799052767810956</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.154555501667297</v>
+        <v>0.1514447698398661</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2110014153887537</v>
+        <v>0.2082981163892075</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>288</v>
@@ -3940,19 +3940,19 @@
         <v>306403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>274412</v>
+        <v>273301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>341281</v>
+        <v>337748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1922541652441135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1721810196266736</v>
+        <v>0.1714844024827382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.21413881239183</v>
+        <v>0.2119220600919662</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>399179</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>379020</v>
+        <v>379866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>416892</v>
+        <v>416043</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7894497885278006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7495815764689004</v>
+        <v>0.751254883213203</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8244796503024187</v>
+        <v>0.8228013950658464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>380</v>
@@ -4065,19 +4065,19 @@
         <v>410930</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>392378</v>
+        <v>392085</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>426406</v>
+        <v>424829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8427772278973394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8047298657047799</v>
+        <v>0.8041294484685054</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8745181023658577</v>
+        <v>0.8712826555527016</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>750</v>
@@ -4086,19 +4086,19 @@
         <v>810108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>783476</v>
+        <v>786229</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>832234</v>
+        <v>833954</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8156288960560042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7888155279224084</v>
+        <v>0.7915871631364644</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8379059971174843</v>
+        <v>0.8396377830416909</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>106463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88750</v>
+        <v>89599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>126622</v>
+        <v>125776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2105502114721995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1755203496975808</v>
+        <v>0.1771986049341535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2504184235310994</v>
+        <v>0.2487451167867966</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -4136,19 +4136,19 @@
         <v>76660</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61184</v>
+        <v>62761</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95212</v>
+        <v>95505</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1572227721026605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1254818976341424</v>
+        <v>0.1287173444472985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.19527013429522</v>
+        <v>0.1958705515314946</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -4157,19 +4157,19 @@
         <v>183123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160997</v>
+        <v>159277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209755</v>
+        <v>207002</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1843711039439958</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1620940028825155</v>
+        <v>0.1603622169583091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2111844720775914</v>
+        <v>0.2084128368635356</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>2688297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2642767</v>
+        <v>2636111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2735855</v>
+        <v>2728720</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7999737107382547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7864250689898459</v>
+        <v>0.784444192009276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.814125752865799</v>
+        <v>0.8120026833369743</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2755</v>
@@ -4282,19 +4282,19 @@
         <v>2938696</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2893146</v>
+        <v>2891043</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2983379</v>
+        <v>2980712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.834242147114036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8213113987525974</v>
+        <v>0.8207144366605403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8469270165867392</v>
+        <v>0.8461698689030862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5331</v>
@@ -4303,19 +4303,19 @@
         <v>5626994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5560077</v>
+        <v>5560755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5686839</v>
+        <v>5688132</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8175114762107095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8077896194419366</v>
+        <v>0.8078880374317277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8262060035975456</v>
+        <v>0.8263939000963659</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>672185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>624627</v>
+        <v>631762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>717715</v>
+        <v>724371</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2000262892617453</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.185874247134201</v>
+        <v>0.1879973166630257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2135749310101546</v>
+        <v>0.2155558079907241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>563</v>
@@ -4353,19 +4353,19 @@
         <v>583897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>539214</v>
+        <v>541881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629447</v>
+        <v>631550</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.165757852885964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1530729834132609</v>
+        <v>0.1538301310969139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1786886012474027</v>
+        <v>0.1792855633394601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1186</v>
@@ -4374,19 +4374,19 @@
         <v>1256082</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1196237</v>
+        <v>1194944</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1322999</v>
+        <v>1322321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1824885237892905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1737939964024545</v>
+        <v>0.1736060999036342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1922103805580636</v>
+        <v>0.1921119625682726</v>
       </c>
     </row>
     <row r="18">
